--- a/LF/TAS/Burkina Faso/2023/bf_lf_tas1_202304_2_participant.xlsx
+++ b/LF/TAS/Burkina Faso/2023/bf_lf_tas1_202304_2_participant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jboulinzann\Documents\Mes dev\WHO\FORMS\BURKINA FASO\TAS3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\LF\TAS\Burkina Faso\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6159F373-E967-4791-898F-1F229D49B900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFF6574-45F5-44F2-BF82-CF2EB479D6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
   <si>
     <t>form_title</t>
   </si>
@@ -46,9 +46,6 @@
     <t>form_id</t>
   </si>
   <si>
-    <t>version</t>
-  </si>
-  <si>
     <t>list_name</t>
   </si>
   <si>
@@ -310,10 +307,10 @@
     <t>7 ans</t>
   </si>
   <si>
-    <t>(Septembre 2022) Burkina Faso TAS3 FL - 2. Formulaire Enrôlement V1</t>
-  </si>
-  <si>
-    <t>bf_lf_tas3_2_participant_202209_v1</t>
+    <t>(Avril 2023) Burkina Faso TAS FL - 2. Formulaire Enrôlement</t>
+  </si>
+  <si>
+    <t>bf_lf_tas1_202304_2_participant</t>
   </si>
 </sst>
 </file>
@@ -466,7 +463,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -490,25 +487,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -811,121 +799,121 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" customWidth="1"/>
-    <col min="4" max="4" width="19.3984375" customWidth="1"/>
-    <col min="5" max="5" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.796875" customWidth="1"/>
-    <col min="7" max="7" width="30.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.75" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.75" customWidth="1"/>
+    <col min="7" max="7" width="30.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="14"/>
+      <c r="G4" s="6"/>
       <c r="H4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -934,27 +922,27 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -964,211 +952,207 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="12"/>
       <c r="H11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="12"/>
       <c r="G12" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="G13" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="12"/>
       <c r="G16" s="6"/>
       <c r="H16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="12"/>
       <c r="G17" s="6"/>
       <c r="H17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="B18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -1177,20 +1161,20 @@
       <c r="H18" s="7"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1214,365 +1198,365 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="17"/>
-    </row>
-    <row r="3" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="16" t="s">
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="17"/>
-    </row>
-    <row r="5" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="16" t="s">
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="20" t="s">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>43</v>
-      </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="C13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
-        <v>87</v>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="B16" s="1">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
         <v>87</v>
+      </c>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="B17" s="1">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
+        <v>88</v>
+      </c>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="19"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="19"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-    </row>
-    <row r="24" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
     </row>
-    <row r="25" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="10"/>
     </row>
-    <row r="27" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="10"/>
     </row>
-    <row r="28" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29" spans="1:4" s="12" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="11"/>
-    </row>
-    <row r="30" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-    </row>
-    <row r="31" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-    </row>
-    <row r="32" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-    </row>
-    <row r="34" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
@@ -1591,20 +1575,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1612,30 +1595,24 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
         <v>44</v>
       </c>
-      <c r="E1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2">
-        <v>20220914</v>
-      </c>
       <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/LF/TAS/Burkina Faso/2023/bf_lf_tas1_202304_2_participant.xlsx
+++ b/LF/TAS/Burkina Faso/2023/bf_lf_tas1_202304_2_participant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\LF\TAS\Burkina Faso\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFF6574-45F5-44F2-BF82-CF2EB479D6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F821952-C1A0-4CD8-A1BB-2304DC46A0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -133,12 +133,6 @@
     <t>sex</t>
   </si>
   <si>
-    <t>regex(.,'^[a-zA-Z]{1}[0-9]{3}$')</t>
-  </si>
-  <si>
-    <t>Le code doit contenir une lettre et trois chiffres</t>
-  </si>
-  <si>
     <t>Scanner</t>
   </si>
   <si>
@@ -238,18 +232,6 @@
     <t>Entrez le code manuel</t>
   </si>
   <si>
-    <t>p_num_menage</t>
-  </si>
-  <si>
-    <t>p_num_menage2</t>
-  </si>
-  <si>
-    <t>Veuillez répéter le Numéro du Ménage</t>
-  </si>
-  <si>
-    <t>. = ${p_num_menage}</t>
-  </si>
-  <si>
     <t>hint::French</t>
   </si>
   <si>
@@ -265,9 +247,6 @@
     <t>p_ds</t>
   </si>
   <si>
-    <t>p_nom_grappe</t>
-  </si>
-  <si>
     <t>6 ou 7 ans</t>
   </si>
   <si>
@@ -280,15 +259,6 @@
     <t>Age de l'enfant</t>
   </si>
   <si>
-    <t>Numéro du ménage</t>
-  </si>
-  <si>
-    <t>Le nom est composé de: 'Numero de grappe'_'Nom du village'_'Code de la grappe'</t>
-  </si>
-  <si>
-    <t>Sélectionnez le nom de la grappe</t>
-  </si>
-  <si>
     <t>regex(.,'^[A-Z]{2}[0-9]{7}$')</t>
   </si>
   <si>
@@ -307,19 +277,56 @@
     <t>7 ans</t>
   </si>
   <si>
-    <t>(Avril 2023) Burkina Faso TAS FL - 2. Formulaire Enrôlement</t>
-  </si>
-  <si>
-    <t>bf_lf_tas1_202304_2_participant</t>
+    <t>(Avril 2023) Burkina Faso TAS FL - 2. Formulaire Enrôlement V2</t>
+  </si>
+  <si>
+    <t>bf_lf_tas1_202304_2_participant_v2</t>
+  </si>
+  <si>
+    <t>Sélectionnez l'école</t>
+  </si>
+  <si>
+    <t>p_site</t>
+  </si>
+  <si>
+    <t>p_code_site</t>
+  </si>
+  <si>
+    <t>Sélectionnez le code de l'école</t>
+  </si>
+  <si>
+    <t>classe</t>
+  </si>
+  <si>
+    <t>CP1</t>
+  </si>
+  <si>
+    <t>CP2</t>
+  </si>
+  <si>
+    <t>Séléctionner la classe</t>
+  </si>
+  <si>
+    <t>select_one classe</t>
+  </si>
+  <si>
+    <t>p_classe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -460,35 +467,38 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -793,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -822,7 +832,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>6</v>
@@ -842,10 +852,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>10</v>
@@ -864,10 +874,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -882,10 +892,10 @@
         <v>27</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -900,10 +910,10 @@
         <v>27</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -914,31 +924,38 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="H6" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>81</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" t="s">
+      <c r="H7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -952,108 +969,105 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="7"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
       <c r="H10" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="H11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="G12" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>84</v>
+      <c r="E13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>11</v>
@@ -1062,24 +1076,22 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>61</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="6"/>
       <c r="H14" s="7" t="s">
         <v>11</v>
       </c>
@@ -1087,21 +1099,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="7" t="s">
         <v>11</v>
@@ -1109,14 +1116,14 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>29</v>
+      <c r="A16" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1128,61 +1135,43 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="7" t="s">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1195,7 +1184,7 @@
   <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A19" sqref="A19:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1220,49 +1209,49 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="12"/>
     </row>
@@ -1277,10 +1266,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -1307,10 +1296,10 @@
         <v>30</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -1319,10 +1308,10 @@
         <v>30</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -1364,25 +1353,25 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B16" s="1">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B17" s="1">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D17" s="14"/>
     </row>
@@ -1393,15 +1382,27 @@
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="A19" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1564,7 +1565,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A58:D72">
     <sortCondition ref="B58:B72"/>
   </sortState>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
@@ -1577,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1595,21 +1596,21 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>

--- a/LF/TAS/Burkina Faso/2023/bf_lf_tas1_202304_2_participant.xlsx
+++ b/LF/TAS/Burkina Faso/2023/bf_lf_tas1_202304_2_participant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\LF\TAS\Burkina Faso\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F821952-C1A0-4CD8-A1BB-2304DC46A0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE110940-B03F-4D82-BCD4-3FB1854BEE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
   <si>
     <t>form_title</t>
   </si>
@@ -277,12 +277,6 @@
     <t>7 ans</t>
   </si>
   <si>
-    <t>(Avril 2023) Burkina Faso TAS FL - 2. Formulaire Enrôlement V2</t>
-  </si>
-  <si>
-    <t>bf_lf_tas1_202304_2_participant_v2</t>
-  </si>
-  <si>
     <t>Sélectionnez l'école</t>
   </si>
   <si>
@@ -311,6 +305,18 @@
   </si>
   <si>
     <t>p_classe</t>
+  </si>
+  <si>
+    <t>Sélectionnez le nom du CSPS</t>
+  </si>
+  <si>
+    <t>(Avril 2023) Burkina Faso TAS FL - 2. Formulaire Enrôlement V2.1</t>
+  </si>
+  <si>
+    <t>bf_lf_tas1_202304_2_participant_v2_1</t>
+  </si>
+  <si>
+    <t>p_nom_CSPS</t>
   </si>
 </sst>
 </file>
@@ -803,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -928,10 +934,10 @@
         <v>27</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -946,10 +952,10 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -960,111 +966,104 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>88</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="6"/>
+      <c r="A10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="G11" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="H11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>74</v>
-      </c>
+      <c r="E12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
+      <c r="E13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>59</v>
@@ -1076,22 +1075,24 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="D14" s="6"/>
       <c r="E14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="H14" s="7" t="s">
         <v>11</v>
       </c>
@@ -1099,16 +1100,21 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="7" t="s">
         <v>11</v>
@@ -1116,14 +1122,14 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>16</v>
+      <c r="A16" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1135,43 +1141,61 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B19" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1383,25 +1407,25 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D20" s="14"/>
     </row>
@@ -1585,7 +1609,7 @@
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1604,10 +1628,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
         <v>42</v>

--- a/LF/TAS/Burkina Faso/2023/bf_lf_tas1_202304_2_participant.xlsx
+++ b/LF/TAS/Burkina Faso/2023/bf_lf_tas1_202304_2_participant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\LF\TAS\Burkina Faso\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE110940-B03F-4D82-BCD4-3FB1854BEE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DB2B00-6B74-4916-9FC2-2A1370624B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="97">
   <si>
     <t>form_title</t>
   </si>
@@ -136,9 +136,6 @@
     <t>Scanner</t>
   </si>
   <si>
-    <t>. &gt;=6 and . &lt;=7</t>
-  </si>
-  <si>
     <t>select_one operateur_list</t>
   </si>
   <si>
@@ -247,9 +244,6 @@
     <t>p_ds</t>
   </si>
   <si>
-    <t>6 ou 7 ans</t>
-  </si>
-  <si>
     <t>L'enfant est-il scolarisé?</t>
   </si>
   <si>
@@ -310,13 +304,31 @@
     <t>Sélectionnez le nom du CSPS</t>
   </si>
   <si>
-    <t>(Avril 2023) Burkina Faso TAS FL - 2. Formulaire Enrôlement V2.1</t>
-  </si>
-  <si>
-    <t>bf_lf_tas1_202304_2_participant_v2_1</t>
-  </si>
-  <si>
     <t>p_nom_CSPS</t>
+  </si>
+  <si>
+    <t>(Avril 2023) Burkina Faso TAS FL - 2. Formulaire Enrôlement V2.2</t>
+  </si>
+  <si>
+    <t>bf_lf_tas1_202304_2_participant_v2_2</t>
+  </si>
+  <si>
+    <t>. &gt;=5 and . &lt;=10</t>
+  </si>
+  <si>
+    <t>L'âge doit être compris entre 5 et 10 ans</t>
+  </si>
+  <si>
+    <t>5 ans</t>
+  </si>
+  <si>
+    <t>8 ans</t>
+  </si>
+  <si>
+    <t>9 ans</t>
+  </si>
+  <si>
+    <t>10 ans</t>
   </si>
 </sst>
 </file>
@@ -811,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -838,7 +850,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>6</v>
@@ -858,10 +870,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>10</v>
@@ -880,10 +892,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -898,10 +910,10 @@
         <v>27</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -916,10 +928,10 @@
         <v>27</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -934,10 +946,10 @@
         <v>27</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -952,10 +964,10 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -970,10 +982,10 @@
         <v>27</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -995,13 +1007,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
@@ -1016,7 +1028,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>22</v>
@@ -1033,7 +1045,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>26</v>
@@ -1041,7 +1053,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>11</v>
@@ -1053,20 +1065,20 @@
         <v>27</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>11</v>
@@ -1078,42 +1090,42 @@
         <v>27</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="7" t="s">
@@ -1126,10 +1138,10 @@
         <v>29</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1144,10 +1156,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1162,7 +1174,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>13</v>
@@ -1179,7 +1191,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1187,7 +1199,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1205,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1233,49 +1245,49 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="12"/>
     </row>
@@ -1320,10 +1332,10 @@
         <v>30</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -1332,10 +1344,10 @@
         <v>30</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -1377,62 +1389,74 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="1">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>84</v>
+      <c r="A19" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="1">
+        <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>85</v>
+      <c r="A20" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="1">
+        <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="A21" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="1">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1442,64 +1466,80 @@
       <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="A23" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="10"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="10"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="13"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="1"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="1"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="C33" s="10"/>
+    <row r="33" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1514,21 +1554,29 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="A39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
@@ -1581,13 +1629,25 @@
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A58:D72">
-    <sortCondition ref="B58:B72"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:D76">
+    <sortCondition ref="B62:B76"/>
   </sortState>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1603,7 +1663,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1620,21 +1680,21 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
         <v>90</v>
       </c>
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
